--- a/datenRF4/SFU/i = 24,42 - Abtriebswelle 22 - Geber AV Y1/L3_24,42_22_AVY1.xlsx
+++ b/datenRF4/SFU/i = 24,42 - Abtriebswelle 22 - Geber AV Y1/L3_24,42_22_AVY1.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/79280b356d20d493/Arbeit/2_Arbeitsergebnisse/2_Strukturierung_Labeling der Daten im Assistenzsystem/Reifegradstufen/Reifegradstufen Synchron ^M Fußgehäuse/i = 24^J42 - Abtriebswelle 22 - Geber AV Y1/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{B6659091-489E-43F8-8AE3-DA476BD5878B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E356690B-4A88-420E-AABF-F0D76C53010F}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{866BF88D-C05E-4884-BF71-5CC7F8CCDE18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -458,11 +452,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -684,7 +678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -696,9 +690,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -749,6 +740,36 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -779,38 +800,20 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -872,7 +875,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -924,7 +927,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1118,213 +1121,213 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93DA643C-8A92-4996-85A3-3168850BCFB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="9" max="9" width="52.85546875" customWidth="1"/>
-    <col min="11" max="11" width="40.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" customWidth="1"/>
-    <col min="13" max="13" width="15.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.5703125" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" customWidth="1"/>
-    <col min="16" max="16" width="19.5703125" customWidth="1"/>
-    <col min="17" max="17" width="23.7109375" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" customWidth="1"/>
+    <col min="1" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="30.7265625" customWidth="1"/>
+    <col min="6" max="6" width="17.54296875" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" customWidth="1"/>
+    <col min="9" max="9" width="52.81640625" customWidth="1"/>
+    <col min="11" max="11" width="40.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" customWidth="1"/>
+    <col min="13" max="13" width="15.81640625" customWidth="1"/>
+    <col min="14" max="14" width="18.54296875" customWidth="1"/>
+    <col min="15" max="15" width="17.1796875" customWidth="1"/>
+    <col min="16" max="16" width="19.54296875" customWidth="1"/>
+    <col min="17" max="17" width="23.7265625" customWidth="1"/>
+    <col min="18" max="18" width="15.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:19" ht="21">
+      <c r="A1" s="67" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="47" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="64" t="s">
         <v>123</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="42" t="s">
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="42"/>
-      <c r="N1" s="42"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="42"/>
-      <c r="Q1" s="42"/>
-      <c r="R1" s="42"/>
-      <c r="S1" s="43"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="60"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="45" t="s">
+      <c r="D2" s="63"/>
+      <c r="E2" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="14"/>
-    </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="F2" s="62"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="13"/>
+    </row>
+    <row r="3" spans="1:19" ht="15" thickBot="1">
+      <c r="A3" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="J3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="39" t="s">
+      <c r="J3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="M3" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="N3" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="O3" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="Q3" s="19" t="s">
+      <c r="Q3" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="72.5">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="23">
+      <c r="G4" s="46"/>
+      <c r="H4" s="22">
         <v>0</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24" t="s">
+      <c r="I4" s="23"/>
+      <c r="J4" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="K4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="M4" s="24"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="25" t="s">
+      <c r="M4" s="23"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="Q4" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="R4" s="24" t="s">
+      <c r="R4" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="S4" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="23"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="23">
-        <v>1</v>
-      </c>
-      <c r="I5" s="24" t="s">
+      <c r="S4" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="29.5" thickBot="1">
+      <c r="A5" s="22"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="22">
+        <v>1</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="26"/>
-    </row>
-    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="25"/>
+    </row>
+    <row r="6" spans="1:19" ht="29">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1340,46 +1343,46 @@
       <c r="E6" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G6" s="54"/>
-      <c r="H6" s="23">
-        <v>1</v>
-      </c>
-      <c r="I6" s="24" t="s">
+      <c r="G6" s="43"/>
+      <c r="H6" s="22">
+        <v>1</v>
+      </c>
+      <c r="I6" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="33" t="s">
+      <c r="K6" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L6" s="24" t="s">
+      <c r="L6" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="23">
         <v>2</v>
       </c>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="25" t="s">
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="R6" s="24" t="s">
+      <c r="R6" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="S6" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="S6" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="22">
         <v>5</v>
       </c>
-      <c r="B7" s="66">
+      <c r="B7" s="55">
         <v>1</v>
       </c>
       <c r="C7">
@@ -1391,28 +1394,28 @@
       <c r="E7" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="55"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="24"/>
-      <c r="S7" s="26"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="G7" s="44"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="25"/>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="22">
         <v>6</v>
       </c>
-      <c r="B8" s="62">
+      <c r="B8" s="51">
         <v>2</v>
       </c>
       <c r="C8">
@@ -1424,28 +1427,28 @@
       <c r="E8" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="26"/>
-    </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23">
+      <c r="G8" s="44"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="25"/>
+    </row>
+    <row r="9" spans="1:19" ht="15" thickBot="1">
+      <c r="A9" s="22">
         <v>7</v>
       </c>
-      <c r="B9" s="62">
+      <c r="B9" s="51">
         <v>2</v>
       </c>
       <c r="C9">
@@ -1457,105 +1460,107 @@
       <c r="E9" t="s">
         <v>80</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="G9" s="55"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="26"/>
-    </row>
-    <row r="10" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>1</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="64" t="s">
+      <c r="G9" s="44"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="25"/>
+    </row>
+    <row r="10" spans="1:19" ht="29.5" thickBot="1">
+      <c r="A10" s="8">
+        <v>1</v>
+      </c>
+      <c r="B10" s="73">
+        <v>3</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="53">
+      <c r="G10" s="42">
         <v>22132</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
-      <c r="S10" s="26"/>
-    </row>
-    <row r="11" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="23">
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="25"/>
+    </row>
+    <row r="11" spans="1:19" ht="29">
+      <c r="A11" s="22"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="22">
         <v>2</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="33" t="s">
+      <c r="K11" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="24"/>
-      <c r="S11" s="26"/>
-    </row>
-    <row r="12" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="23">
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="25"/>
+    </row>
+    <row r="12" spans="1:19" ht="29.5" thickBot="1">
+      <c r="A12" s="22"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="22">
         <v>2</v>
       </c>
-      <c r="I12" s="24" t="s">
+      <c r="I12" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="K12" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="24"/>
-      <c r="S12" s="26"/>
-    </row>
-    <row r="13" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="25"/>
+    </row>
+    <row r="13" spans="1:19" ht="43.5">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1571,46 +1576,46 @@
       <c r="E13" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F13" s="35" t="s">
+      <c r="F13" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G13" s="54"/>
-      <c r="H13" s="23">
+      <c r="G13" s="43"/>
+      <c r="H13" s="22">
         <v>3</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K13" s="33" t="s">
+      <c r="K13" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="M13" s="24">
+      <c r="M13" s="23">
         <v>7</v>
       </c>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="25" t="s">
+      <c r="N13" s="30"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="30"/>
+      <c r="Q13" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="R13" s="24" t="s">
+      <c r="R13" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="S13" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="S13" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="22">
         <v>5</v>
       </c>
-      <c r="B14" s="66">
+      <c r="B14" s="55">
         <v>1</v>
       </c>
       <c r="C14">
@@ -1622,28 +1627,28 @@
       <c r="E14" t="s">
         <v>129</v>
       </c>
-      <c r="F14" s="67" t="s">
+      <c r="F14" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="26"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="G14" s="44"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="30"/>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="25"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="22">
         <v>6</v>
       </c>
-      <c r="B15" s="62">
+      <c r="B15" s="51">
         <v>2</v>
       </c>
       <c r="C15">
@@ -1655,123 +1660,127 @@
       <c r="E15" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="G15" s="55"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="26"/>
-    </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="44"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30"/>
+      <c r="P15" s="30"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="23"/>
+      <c r="S15" s="25"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" thickBot="1">
       <c r="A16" s="6">
         <v>7</v>
       </c>
-      <c r="B16" s="68">
+      <c r="B16" s="57">
         <v>2</v>
       </c>
-      <c r="C16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="56"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="26"/>
-    </row>
-    <row r="17" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
-        <v>1</v>
-      </c>
-      <c r="B17" s="66"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="25"/>
+    </row>
+    <row r="17" spans="1:19" ht="29">
+      <c r="A17" s="22">
+        <v>1</v>
+      </c>
+      <c r="B17" s="70">
+        <v>3</v>
+      </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
         <v>77</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="31" t="s">
         <v>82</v>
       </c>
       <c r="F17" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="25">
         <v>22132</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="26"/>
-    </row>
-    <row r="18" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="23"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="25"/>
+    </row>
+    <row r="18" spans="1:19" ht="29.5" thickBot="1">
       <c r="A18" s="6">
         <v>2</v>
       </c>
-      <c r="B18" s="68"/>
-      <c r="C18" s="8">
+      <c r="B18" s="72">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>4</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E18" s="27" t="s">
+      <c r="D18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="27">
         <v>14131</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="26"/>
-    </row>
-    <row r="19" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="25"/>
+    </row>
+    <row r="19" spans="1:19" ht="43.5">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -1787,46 +1796,46 @@
       <c r="E19" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="35" t="s">
+      <c r="F19" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="23">
+      <c r="G19" s="43"/>
+      <c r="H19" s="22">
         <v>4</v>
       </c>
-      <c r="I19" s="24" t="s">
+      <c r="I19" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="K19" s="33" t="s">
+      <c r="K19" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="24" t="s">
+      <c r="L19" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="M19" s="24">
+      <c r="M19" s="23">
         <v>10</v>
       </c>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="25" t="s">
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="R19" s="24" t="s">
+      <c r="R19" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="S19" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="23">
+      <c r="S19" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="22">
         <v>5</v>
       </c>
-      <c r="B20" s="66">
+      <c r="B20" s="55">
         <v>1</v>
       </c>
       <c r="C20">
@@ -1838,28 +1847,28 @@
       <c r="E20" t="s">
         <v>129</v>
       </c>
-      <c r="F20" s="67" t="s">
+      <c r="F20" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="G20" s="55"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="26"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="23">
+      <c r="G20" s="44"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="30"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="25"/>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="22">
         <v>6</v>
       </c>
-      <c r="B21" s="62">
+      <c r="B21" s="51">
         <v>2</v>
       </c>
       <c r="C21">
@@ -1871,147 +1880,151 @@
       <c r="E21" t="s">
         <v>78</v>
       </c>
-      <c r="F21" s="67" t="s">
+      <c r="F21" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="55"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="26"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G21" s="44"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="25"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" thickBot="1">
       <c r="A22" s="6">
         <v>7</v>
       </c>
-      <c r="B22" s="68">
+      <c r="B22" s="57">
         <v>2</v>
       </c>
-      <c r="C22" s="8">
-        <v>1</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E22" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F22" s="37" t="s">
+      <c r="F22" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="26"/>
-    </row>
-    <row r="23" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="23">
-        <v>1</v>
-      </c>
-      <c r="B23" s="66"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="25"/>
+    </row>
+    <row r="23" spans="1:19" ht="29">
+      <c r="A23" s="22">
+        <v>1</v>
+      </c>
+      <c r="B23" s="70">
+        <v>3</v>
+      </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
         <v>77</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="E23" s="31" t="s">
         <v>82</v>
       </c>
       <c r="F23" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="25">
         <v>22132</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="26"/>
-    </row>
-    <row r="24" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H23" s="22"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="25"/>
+    </row>
+    <row r="24" spans="1:19" ht="29.5" thickBot="1">
       <c r="A24" s="6">
         <v>2</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="8">
+      <c r="B24" s="72">
+        <v>3</v>
+      </c>
+      <c r="C24" s="7">
         <v>4</v>
       </c>
-      <c r="D24" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E24" s="27" t="s">
+      <c r="D24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="27">
         <v>14131</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="26"/>
-    </row>
-    <row r="25" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="23">
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="23"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="25"/>
+    </row>
+    <row r="25" spans="1:19" ht="44" thickBot="1">
+      <c r="A25" s="22"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="22">
         <v>5</v>
       </c>
-      <c r="I25" s="24" t="s">
+      <c r="I25" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="33" t="s">
+      <c r="K25" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="26"/>
-    </row>
-    <row r="26" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="25"/>
+    </row>
+    <row r="26" spans="1:19" ht="43.5">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -2027,48 +2040,48 @@
       <c r="E26" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F26" s="35" t="s">
+      <c r="F26" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G26" s="54"/>
-      <c r="H26" s="23">
+      <c r="G26" s="43"/>
+      <c r="H26" s="22">
         <v>5</v>
       </c>
-      <c r="I26" s="24" t="s">
+      <c r="I26" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="K26" s="33" t="s">
+      <c r="K26" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="L26" s="24" t="s">
+      <c r="L26" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="M26" s="24"/>
-      <c r="N26" s="31">
-        <v>1</v>
-      </c>
-      <c r="O26" s="31">
+      <c r="M26" s="23"/>
+      <c r="N26" s="30">
+        <v>1</v>
+      </c>
+      <c r="O26" s="30">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P26" s="31">
+      <c r="P26" s="30">
         <v>1.8</v>
       </c>
-      <c r="Q26" s="25" t="s">
+      <c r="Q26" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="R26" s="25" t="s">
+      <c r="R26" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="S26" s="26"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
+      <c r="S26" s="25"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="22">
         <v>5</v>
       </c>
-      <c r="B27" s="66">
+      <c r="B27" s="55">
         <v>1</v>
       </c>
       <c r="C27">
@@ -2080,28 +2093,28 @@
       <c r="E27" t="s">
         <v>129</v>
       </c>
-      <c r="F27" s="67" t="s">
+      <c r="F27" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="G27" s="55"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="26"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
+      <c r="G27" s="44"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="25"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="22">
         <v>6</v>
       </c>
-      <c r="B28" s="62">
+      <c r="B28" s="51">
         <v>2</v>
       </c>
       <c r="C28">
@@ -2113,147 +2126,151 @@
       <c r="E28" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="67" t="s">
+      <c r="F28" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="26"/>
-    </row>
-    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="44"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="25"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" thickBot="1">
       <c r="A29" s="6">
         <v>7</v>
       </c>
-      <c r="B29" s="68">
+      <c r="B29" s="57">
         <v>2</v>
       </c>
-      <c r="C29" s="8">
-        <v>1</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="8" t="s">
+      <c r="C29" s="7">
+        <v>1</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="37" t="s">
+      <c r="F29" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="G29" s="56"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="26"/>
-    </row>
-    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
-        <v>1</v>
-      </c>
-      <c r="B30" s="66"/>
+      <c r="G29" s="45"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="25"/>
+    </row>
+    <row r="30" spans="1:19" ht="29">
+      <c r="A30" s="22">
+        <v>1</v>
+      </c>
+      <c r="B30" s="70">
+        <v>3</v>
+      </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
         <v>77</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="31" t="s">
         <v>82</v>
       </c>
       <c r="F30" t="s">
         <v>83</v>
       </c>
-      <c r="G30" s="26">
+      <c r="G30" s="25">
         <v>22132</v>
       </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="24"/>
-      <c r="R30" s="24"/>
-      <c r="S30" s="26"/>
-    </row>
-    <row r="31" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30" s="22"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30"/>
+      <c r="P30" s="30"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="25"/>
+    </row>
+    <row r="31" spans="1:19" ht="29.5" thickBot="1">
       <c r="A31" s="6">
         <v>2</v>
       </c>
-      <c r="B31" s="68"/>
-      <c r="C31" s="8">
+      <c r="B31" s="72">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
         <v>4</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="27" t="s">
+      <c r="D31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="26" t="s">
         <v>133</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G31" s="28">
+      <c r="G31" s="27">
         <v>14131</v>
       </c>
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="24"/>
-      <c r="R31" s="24"/>
-      <c r="S31" s="26"/>
-    </row>
-    <row r="32" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="23"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="23">
+      <c r="H31" s="22"/>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="25"/>
+    </row>
+    <row r="32" spans="1:19" ht="29.5" thickBot="1">
+      <c r="A32" s="22"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="22">
         <v>6</v>
       </c>
-      <c r="I32" s="24" t="s">
+      <c r="I32" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="J32" s="24" t="s">
+      <c r="J32" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="K32" s="33" t="s">
+      <c r="K32" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L32" s="24"/>
-      <c r="M32" s="24"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="24"/>
-      <c r="R32" s="24"/>
-      <c r="S32" s="26"/>
-    </row>
-    <row r="33" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="25"/>
+    </row>
+    <row r="33" spans="1:19" ht="29">
       <c r="A33" s="3">
         <v>1</v>
       </c>
@@ -2269,46 +2286,46 @@
       <c r="E33" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="35" t="s">
+      <c r="F33" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G33" s="54"/>
-      <c r="H33" s="23">
+      <c r="G33" s="43"/>
+      <c r="H33" s="22">
         <v>6</v>
       </c>
-      <c r="I33" s="24" t="s">
+      <c r="I33" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="J33" s="24" t="s">
+      <c r="J33" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="K33" s="33" t="s">
+      <c r="K33" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="L33" s="24" t="s">
+      <c r="L33" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="M33" s="24">
+      <c r="M33" s="23">
         <v>10</v>
       </c>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="25" t="s">
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="R33" s="24" t="s">
+      <c r="R33" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="S33" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="23">
+      <c r="S33" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="22">
         <v>5</v>
       </c>
-      <c r="B34" s="66">
+      <c r="B34" s="55">
         <v>1</v>
       </c>
       <c r="C34">
@@ -2320,28 +2337,28 @@
       <c r="E34" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="67" t="s">
+      <c r="F34" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="G34" s="55"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="26"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="23">
+      <c r="G34" s="44"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="25"/>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="22">
         <v>6</v>
       </c>
-      <c r="B35" s="62">
+      <c r="B35" s="51">
         <v>2</v>
       </c>
       <c r="C35">
@@ -2353,28 +2370,28 @@
       <c r="E35" t="s">
         <v>78</v>
       </c>
-      <c r="F35" s="67" t="s">
+      <c r="F35" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="G35" s="55"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="26"/>
-    </row>
-    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="23">
+      <c r="G35" s="44"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="23"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="30"/>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="25"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" thickBot="1">
+      <c r="A36" s="22">
         <v>7</v>
       </c>
-      <c r="B36" s="62">
+      <c r="B36" s="51">
         <v>2</v>
       </c>
       <c r="C36">
@@ -2386,90 +2403,94 @@
       <c r="E36" t="s">
         <v>80</v>
       </c>
-      <c r="F36" s="67" t="s">
+      <c r="F36" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="G36" s="55"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="26"/>
-    </row>
-    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="G36" s="44"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="30"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="23"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="25"/>
+    </row>
+    <row r="37" spans="1:19" ht="29">
       <c r="A37" s="3">
         <v>1</v>
       </c>
-      <c r="B37" s="4"/>
+      <c r="B37" s="71">
+        <v>3</v>
+      </c>
       <c r="C37" s="5">
         <v>1</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E37" s="69" t="s">
+      <c r="E37" s="58" t="s">
         <v>82</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G37" s="57">
+      <c r="G37" s="46">
         <v>22132</v>
       </c>
-      <c r="H37" s="23"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="26"/>
-    </row>
-    <row r="38" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="23">
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="25"/>
+    </row>
+    <row r="38" spans="1:19" ht="29.5" thickBot="1">
+      <c r="A38" s="22">
         <v>2</v>
       </c>
-      <c r="B38" s="62"/>
+      <c r="B38" s="70">
+        <v>3</v>
+      </c>
       <c r="C38">
         <v>4</v>
       </c>
       <c r="D38" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E38" s="31" t="s">
         <v>133</v>
       </c>
       <c r="F38" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="25">
         <v>14131</v>
       </c>
-      <c r="H38" s="23"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="26"/>
-    </row>
-    <row r="39" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="25"/>
+    </row>
+    <row r="39" spans="1:19" ht="29">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -2485,20 +2506,20 @@
       <c r="E39" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F39" s="35" t="s">
+      <c r="F39" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G39" s="54"/>
-      <c r="H39" s="23">
+      <c r="G39" s="43"/>
+      <c r="H39" s="22">
         <v>7</v>
       </c>
-      <c r="I39" s="24" t="s">
+      <c r="I39" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="J39" s="24" t="s">
+      <c r="J39" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K39" s="26" t="s">
+      <c r="K39" s="25" t="s">
         <v>4</v>
       </c>
       <c r="L39" t="s">
@@ -2507,24 +2528,24 @@
       <c r="M39">
         <v>1</v>
       </c>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="32" t="s">
+      <c r="N39" s="30"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="31" t="s">
         <v>92</v>
       </c>
       <c r="R39" t="s">
         <v>91</v>
       </c>
-      <c r="S39" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="23">
+      <c r="S39" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="22">
         <v>5</v>
       </c>
-      <c r="B40" s="66">
+      <c r="B40" s="55">
         <v>1</v>
       </c>
       <c r="C40">
@@ -2536,22 +2557,22 @@
       <c r="E40" t="s">
         <v>129</v>
       </c>
-      <c r="F40" s="67" t="s">
+      <c r="F40" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="G40" s="55"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="24"/>
-      <c r="S40" s="26"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="23">
+      <c r="G40" s="44"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="23"/>
+      <c r="S40" s="25"/>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="A41" s="22">
         <v>6</v>
       </c>
-      <c r="B41" s="62">
+      <c r="B41" s="51">
         <v>2</v>
       </c>
       <c r="C41">
@@ -2563,98 +2584,100 @@
       <c r="E41" t="s">
         <v>78</v>
       </c>
-      <c r="F41" s="67" t="s">
+      <c r="F41" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="G41" s="55"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="33"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="S41" s="26"/>
-    </row>
-    <row r="42" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="44"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="32"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="S41" s="25"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" thickBot="1">
       <c r="A42" s="6">
         <v>7</v>
       </c>
-      <c r="B42" s="68">
+      <c r="B42" s="57">
         <v>2</v>
       </c>
-      <c r="C42" s="8">
-        <v>1</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="8" t="s">
+      <c r="C42" s="7">
+        <v>1</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E42" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="37" t="s">
+      <c r="F42" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="G42" s="56"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="33"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="S42" s="26"/>
-    </row>
-    <row r="43" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="45"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="32"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="S42" s="25"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" thickBot="1">
       <c r="A43" s="6">
         <v>1</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="8">
-        <v>1</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E43" s="27" t="s">
+      <c r="B43" s="57">
+        <v>2</v>
+      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G43" s="28">
+      <c r="G43" s="27">
         <v>12140</v>
       </c>
-      <c r="H43" s="23"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="33"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="S43" s="26"/>
-    </row>
-    <row r="44" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G44" s="26"/>
-      <c r="H44" s="23">
+      <c r="H43" s="22"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="32"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="S43" s="25"/>
+    </row>
+    <row r="44" spans="1:19" ht="15" thickBot="1">
+      <c r="G44" s="25"/>
+      <c r="H44" s="22">
         <v>7</v>
       </c>
-      <c r="I44" s="24" t="s">
+      <c r="I44" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="J44" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="K44" s="26" t="s">
+      <c r="K44" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="32"/>
-      <c r="S44" s="26"/>
-    </row>
-    <row r="45" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="N44" s="30"/>
+      <c r="O44" s="30"/>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="31"/>
+      <c r="S44" s="25"/>
+    </row>
+    <row r="45" spans="1:19" ht="43.5">
       <c r="A45" s="3">
         <v>1</v>
       </c>
@@ -2670,20 +2693,20 @@
       <c r="E45" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F45" s="35" t="s">
+      <c r="F45" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G45" s="54"/>
-      <c r="H45" s="23">
+      <c r="G45" s="43"/>
+      <c r="H45" s="22">
         <v>8</v>
       </c>
-      <c r="I45" s="24" t="s">
+      <c r="I45" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="J45" s="24" t="s">
+      <c r="J45" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="K45" s="33" t="s">
+      <c r="K45" s="32" t="s">
         <v>14</v>
       </c>
       <c r="L45" t="s">
@@ -2692,24 +2715,24 @@
       <c r="M45">
         <v>9</v>
       </c>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="32" t="s">
+      <c r="N45" s="30"/>
+      <c r="O45" s="30"/>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="31" t="s">
         <v>92</v>
       </c>
       <c r="R45" t="s">
         <v>91</v>
       </c>
-      <c r="S45" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="23">
+      <c r="S45" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19">
+      <c r="A46" s="22">
         <v>5</v>
       </c>
-      <c r="B46" s="66">
+      <c r="B46" s="55">
         <v>1</v>
       </c>
       <c r="C46">
@@ -2721,22 +2744,22 @@
       <c r="E46" t="s">
         <v>129</v>
       </c>
-      <c r="F46" s="67" t="s">
+      <c r="F46" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="G46" s="55"/>
-      <c r="H46" s="23"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="24"/>
-      <c r="S46" s="26"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="23">
+      <c r="G46" s="44"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="23"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="23"/>
+      <c r="S46" s="25"/>
+    </row>
+    <row r="47" spans="1:19">
+      <c r="A47" s="22">
         <v>6</v>
       </c>
-      <c r="B47" s="62">
+      <c r="B47" s="51">
         <v>2</v>
       </c>
       <c r="C47">
@@ -2748,650 +2771,652 @@
       <c r="E47" t="s">
         <v>78</v>
       </c>
-      <c r="F47" s="67" t="s">
+      <c r="F47" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="G47" s="55"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="33"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="S47" s="26"/>
-    </row>
-    <row r="48" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="44"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="32"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="S47" s="25"/>
+    </row>
+    <row r="48" spans="1:19" ht="15" thickBot="1">
       <c r="A48" s="6">
         <v>7</v>
       </c>
-      <c r="B48" s="68">
+      <c r="B48" s="57">
         <v>2</v>
       </c>
-      <c r="C48" s="8">
-        <v>1</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E48" s="8" t="s">
+      <c r="C48" s="7">
+        <v>1</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F48" s="37" t="s">
+      <c r="F48" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="G48" s="56"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="33"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-      <c r="S48" s="26"/>
-    </row>
-    <row r="49" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="45"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="32"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="30"/>
+      <c r="P48" s="30"/>
+      <c r="S48" s="25"/>
+    </row>
+    <row r="49" spans="1:19" ht="15" thickBot="1">
       <c r="A49" s="6">
         <v>1</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8">
-        <v>1</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E49" s="27" t="s">
+      <c r="B49" s="57">
+        <v>2</v>
+      </c>
+      <c r="C49" s="7">
+        <v>1</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="E49" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G49" s="28">
+      <c r="G49" s="27">
         <v>12140</v>
       </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="33"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="S49" s="26"/>
-    </row>
-    <row r="50" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="H49" s="22"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="32"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="30"/>
+      <c r="P49" s="30"/>
+      <c r="S49" s="25"/>
+    </row>
+    <row r="50" spans="1:19" ht="43.5">
       <c r="A50" s="3"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="23">
+      <c r="G50" s="23"/>
+      <c r="H50" s="22">
         <v>9</v>
       </c>
-      <c r="I50" s="24" t="s">
+      <c r="I50" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="J50" s="24" t="s">
+      <c r="J50" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="K50" s="33" t="s">
+      <c r="K50" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="S50" s="26"/>
-    </row>
-    <row r="51" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="23">
+      <c r="N50" s="30"/>
+      <c r="O50" s="30"/>
+      <c r="P50" s="30"/>
+      <c r="S50" s="25"/>
+    </row>
+    <row r="51" spans="1:19" ht="43.5">
+      <c r="A51" s="22"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="22">
         <v>9</v>
       </c>
-      <c r="I51" s="24" t="s">
+      <c r="I51" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="J51" s="24" t="s">
+      <c r="J51" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="K51" s="33" t="s">
+      <c r="K51" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="26"/>
-    </row>
-    <row r="52" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="H52" s="23">
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="25"/>
+    </row>
+    <row r="52" spans="1:19" ht="43.5">
+      <c r="H52" s="22">
         <v>10</v>
       </c>
-      <c r="I52" s="24" t="s">
+      <c r="I52" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="J52" s="24" t="s">
+      <c r="J52" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="K52" s="33" t="s">
+      <c r="K52" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L52" s="24" t="s">
+      <c r="L52" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="M52" s="24">
+      <c r="M52" s="23">
         <v>10</v>
       </c>
-      <c r="N52" s="31"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="25" t="s">
+      <c r="N52" s="30"/>
+      <c r="O52" s="30"/>
+      <c r="P52" s="30"/>
+      <c r="Q52" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="R52" s="24" t="s">
+      <c r="R52" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="S52" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H53" s="23"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="31"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="24"/>
-      <c r="S53" s="26"/>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H54" s="23"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="31"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="26"/>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H55" s="23"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="33"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="31"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="24"/>
-      <c r="R55" s="24"/>
-      <c r="S55" s="26"/>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H56" s="23"/>
-      <c r="I56" s="24"/>
-      <c r="J56" s="24"/>
-      <c r="K56" s="33"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="24"/>
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="24"/>
-      <c r="R56" s="24"/>
-      <c r="S56" s="26"/>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H57" s="23"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="26"/>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H58" s="23"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="33"/>
-      <c r="L58" s="24"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="24"/>
-      <c r="R58" s="24"/>
-      <c r="S58" s="26"/>
-    </row>
-    <row r="59" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="H59" s="23">
+      <c r="S52" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19">
+      <c r="H53" s="22"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="30"/>
+      <c r="P53" s="30"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="25"/>
+    </row>
+    <row r="54" spans="1:19">
+      <c r="H54" s="22"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="25"/>
+    </row>
+    <row r="55" spans="1:19">
+      <c r="H55" s="22"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="30"/>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="25"/>
+    </row>
+    <row r="56" spans="1:19">
+      <c r="H56" s="22"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="32"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="30"/>
+      <c r="P56" s="30"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="25"/>
+    </row>
+    <row r="57" spans="1:19">
+      <c r="H57" s="22"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="32"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="23"/>
+      <c r="R57" s="23"/>
+      <c r="S57" s="25"/>
+    </row>
+    <row r="58" spans="1:19">
+      <c r="H58" s="22"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="32"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="30"/>
+      <c r="P58" s="30"/>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="23"/>
+      <c r="S58" s="25"/>
+    </row>
+    <row r="59" spans="1:19" ht="43.5">
+      <c r="H59" s="22">
         <v>10</v>
       </c>
-      <c r="I59" s="24" t="s">
+      <c r="I59" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="J59" s="24" t="s">
+      <c r="J59" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K59" s="33" t="s">
+      <c r="K59" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="L59" s="24"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="24"/>
-      <c r="R59" s="24"/>
-      <c r="S59" s="26"/>
-    </row>
-    <row r="60" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="H60" s="23">
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="30"/>
+      <c r="P59" s="30"/>
+      <c r="Q59" s="23"/>
+      <c r="R59" s="23"/>
+      <c r="S59" s="25"/>
+    </row>
+    <row r="60" spans="1:19" ht="58">
+      <c r="H60" s="22">
         <v>11</v>
       </c>
-      <c r="I60" s="24" t="s">
+      <c r="I60" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="J60" s="24" t="s">
+      <c r="J60" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="K60" s="33" t="s">
+      <c r="K60" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="L60" s="24" t="s">
+      <c r="L60" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="M60" s="24"/>
-      <c r="N60" s="31">
-        <v>1</v>
-      </c>
-      <c r="O60" s="31">
+      <c r="M60" s="23"/>
+      <c r="N60" s="30">
+        <v>1</v>
+      </c>
+      <c r="O60" s="30">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P60" s="31">
+      <c r="P60" s="30">
         <v>1.8</v>
       </c>
-      <c r="Q60" s="25" t="s">
+      <c r="Q60" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="R60" s="25" t="s">
+      <c r="R60" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="S60" s="26"/>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H61" s="23"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="33"/>
-      <c r="L61" s="24"/>
-      <c r="M61" s="24"/>
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="24"/>
-      <c r="R61" s="24"/>
-      <c r="S61" s="26"/>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H62" s="23"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="24"/>
-      <c r="R62" s="24"/>
-      <c r="S62" s="26"/>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H63" s="23"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="24"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="24"/>
-      <c r="R63" s="24"/>
-      <c r="S63" s="26"/>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H64" s="23"/>
-      <c r="I64" s="24"/>
-      <c r="J64" s="24"/>
-      <c r="K64" s="33"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="31"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="24"/>
-      <c r="R64" s="24"/>
-      <c r="S64" s="26"/>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H65" s="23"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="33"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="24"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="24"/>
-      <c r="S65" s="26"/>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H66" s="23"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="24"/>
-      <c r="M66" s="24"/>
-      <c r="Q66" s="24"/>
-      <c r="R66" s="24"/>
-      <c r="S66" s="26"/>
-    </row>
-    <row r="67" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="H67" s="23">
+      <c r="S60" s="25"/>
+    </row>
+    <row r="61" spans="1:19">
+      <c r="H61" s="22"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="32"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="23"/>
+      <c r="S61" s="25"/>
+    </row>
+    <row r="62" spans="1:19">
+      <c r="H62" s="22"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="32"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="30"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="25"/>
+    </row>
+    <row r="63" spans="1:19">
+      <c r="H63" s="22"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="32"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="25"/>
+    </row>
+    <row r="64" spans="1:19">
+      <c r="H64" s="22"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="32"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="30"/>
+      <c r="P64" s="30"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="25"/>
+    </row>
+    <row r="65" spans="1:19">
+      <c r="H65" s="22"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="32"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="23"/>
+      <c r="S65" s="25"/>
+    </row>
+    <row r="66" spans="1:19">
+      <c r="H66" s="22"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="32"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="25"/>
+    </row>
+    <row r="67" spans="1:19" ht="43.5">
+      <c r="H67" s="22">
         <v>11</v>
       </c>
-      <c r="I67" s="24" t="s">
+      <c r="I67" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="J67" s="24" t="s">
+      <c r="J67" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="K67" s="33" t="s">
+      <c r="K67" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="L67" s="24"/>
-      <c r="M67" s="24"/>
-      <c r="Q67" s="24"/>
-      <c r="R67" s="24"/>
-      <c r="S67" s="26"/>
-    </row>
-    <row r="68" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="H68" s="23">
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="23"/>
+      <c r="S67" s="25"/>
+    </row>
+    <row r="68" spans="1:19" ht="29">
+      <c r="H68" s="22">
         <v>12</v>
       </c>
-      <c r="I68" s="24" t="s">
+      <c r="I68" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="J68" s="24" t="s">
+      <c r="J68" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="K68" s="33" t="s">
+      <c r="K68" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L68" s="24" t="s">
+      <c r="L68" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="M68" s="24">
+      <c r="M68" s="23">
         <v>10</v>
       </c>
-      <c r="Q68" s="25" t="s">
+      <c r="Q68" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="R68" s="24" t="s">
+      <c r="R68" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="S68" s="26"/>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H69" s="23"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="33"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="24"/>
-      <c r="Q69" s="24"/>
-      <c r="R69" s="24"/>
-      <c r="S69" s="26"/>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H70" s="23"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="33"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="24"/>
-      <c r="Q70" s="24"/>
-      <c r="R70" s="24"/>
-      <c r="S70" s="26"/>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H71" s="23"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="33"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
-      <c r="Q71" s="24"/>
-      <c r="R71" s="24"/>
-      <c r="S71" s="26"/>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H72" s="23"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="33"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="24"/>
-      <c r="Q72" s="24"/>
-      <c r="R72" s="24"/>
-      <c r="S72" s="26"/>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H73" s="23"/>
-      <c r="I73" s="24"/>
-      <c r="J73" s="24"/>
-      <c r="K73" s="33"/>
-      <c r="L73" s="24"/>
-      <c r="M73" s="24"/>
-      <c r="Q73" s="24"/>
-      <c r="R73" s="24"/>
-      <c r="S73" s="26"/>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="H74" s="23"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="33"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="24"/>
-      <c r="Q74" s="24"/>
-      <c r="R74" s="24"/>
-      <c r="S74" s="26"/>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A75" s="23"/>
-      <c r="B75" s="24"/>
-      <c r="C75" s="24"/>
-      <c r="D75" s="24"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="23">
+      <c r="S68" s="25"/>
+    </row>
+    <row r="69" spans="1:19">
+      <c r="H69" s="22"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="23"/>
+      <c r="S69" s="25"/>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="H70" s="22"/>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="32"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="23"/>
+      <c r="Q70" s="23"/>
+      <c r="R70" s="23"/>
+      <c r="S70" s="25"/>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="H71" s="22"/>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="32"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
+      <c r="Q71" s="23"/>
+      <c r="R71" s="23"/>
+      <c r="S71" s="25"/>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="H72" s="22"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="32"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="Q72" s="23"/>
+      <c r="R72" s="23"/>
+      <c r="S72" s="25"/>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="H73" s="22"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="32"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
+      <c r="Q73" s="23"/>
+      <c r="R73" s="23"/>
+      <c r="S73" s="25"/>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="H74" s="22"/>
+      <c r="I74" s="23"/>
+      <c r="J74" s="23"/>
+      <c r="K74" s="32"/>
+      <c r="L74" s="23"/>
+      <c r="M74" s="23"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="23"/>
+      <c r="S74" s="25"/>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" s="22"/>
+      <c r="B75" s="23"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="23"/>
+      <c r="H75" s="22">
         <v>12</v>
       </c>
-      <c r="I75" s="24" t="s">
+      <c r="I75" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="J75" s="24" t="s">
+      <c r="J75" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="K75" s="33" t="s">
+      <c r="K75" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="L75" s="24"/>
-      <c r="M75" s="24"/>
-      <c r="Q75" s="24"/>
-      <c r="R75" s="24"/>
-      <c r="S75" s="26"/>
-    </row>
-    <row r="76" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="23"/>
-      <c r="B76" s="24"/>
-      <c r="C76" s="24"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="23">
+      <c r="L75" s="23"/>
+      <c r="M75" s="23"/>
+      <c r="Q75" s="23"/>
+      <c r="R75" s="23"/>
+      <c r="S75" s="25"/>
+    </row>
+    <row r="76" spans="1:19" ht="29">
+      <c r="A76" s="22"/>
+      <c r="B76" s="23"/>
+      <c r="C76" s="23"/>
+      <c r="D76" s="23"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="23"/>
+      <c r="H76" s="22">
         <v>13</v>
       </c>
-      <c r="I76" s="24" t="s">
+      <c r="I76" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="J76" s="24" t="s">
+      <c r="J76" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="K76" s="33" t="s">
+      <c r="K76" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L76" s="24"/>
-      <c r="M76" s="24"/>
-      <c r="Q76" s="24"/>
-      <c r="R76" s="24"/>
-      <c r="S76" s="26"/>
-    </row>
-    <row r="77" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
-      <c r="B77" s="24"/>
-      <c r="C77" s="24"/>
-      <c r="D77" s="24"/>
-      <c r="E77" s="24"/>
-      <c r="F77" s="24"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="23">
+      <c r="L76" s="23"/>
+      <c r="M76" s="23"/>
+      <c r="Q76" s="23"/>
+      <c r="R76" s="23"/>
+      <c r="S76" s="25"/>
+    </row>
+    <row r="77" spans="1:19" ht="29">
+      <c r="A77" s="22"/>
+      <c r="B77" s="23"/>
+      <c r="C77" s="23"/>
+      <c r="D77" s="23"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="23"/>
+      <c r="H77" s="22">
         <v>13</v>
       </c>
-      <c r="I77" s="24" t="s">
+      <c r="I77" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="J77" s="24" t="s">
+      <c r="J77" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="K77" s="33" t="s">
+      <c r="K77" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L77" s="24"/>
-      <c r="M77" s="24"/>
-      <c r="Q77" s="24"/>
-      <c r="R77" s="24"/>
-      <c r="S77" s="26"/>
-    </row>
-    <row r="78" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="12"/>
+      <c r="L77" s="23"/>
+      <c r="M77" s="23"/>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="23"/>
+      <c r="S77" s="25"/>
+    </row>
+    <row r="78" spans="1:19" ht="29.5" thickBot="1">
+      <c r="A78" s="11"/>
       <c r="B78" s="1"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="34"/>
-      <c r="G78" s="52"/>
-      <c r="H78" s="23">
+      <c r="F78" s="33"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="22">
         <v>13</v>
       </c>
-      <c r="I78" s="24" t="s">
+      <c r="I78" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="J78" s="24" t="s">
+      <c r="J78" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="K78" s="33" t="s">
+      <c r="K78" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L78" s="24"/>
-      <c r="M78" s="24"/>
-      <c r="Q78" s="25"/>
-      <c r="R78" s="24"/>
-      <c r="S78" s="26"/>
-    </row>
-    <row r="79" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="9">
-        <v>1</v>
-      </c>
-      <c r="B79" s="60">
-        <v>1</v>
-      </c>
-      <c r="C79" s="11">
-        <v>1</v>
-      </c>
-      <c r="D79" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E79" s="11" t="s">
+      <c r="L78" s="23"/>
+      <c r="M78" s="23"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="23"/>
+      <c r="S78" s="25"/>
+    </row>
+    <row r="79" spans="1:19" ht="29.5" thickBot="1">
+      <c r="A79" s="8">
+        <v>1</v>
+      </c>
+      <c r="B79" s="49">
+        <v>1</v>
+      </c>
+      <c r="C79" s="10">
+        <v>1</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E79" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F79" s="36" t="s">
+      <c r="F79" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G79" s="61"/>
-      <c r="H79" s="23">
+      <c r="G79" s="50"/>
+      <c r="H79" s="22">
         <v>13</v>
       </c>
-      <c r="I79" s="24" t="s">
+      <c r="I79" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="J79" s="24" t="s">
+      <c r="J79" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="K79" s="33" t="s">
+      <c r="K79" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L79" s="24" t="s">
+      <c r="L79" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="M79" s="24">
+      <c r="M79" s="23">
         <v>5</v>
       </c>
-      <c r="Q79" s="25" t="s">
+      <c r="Q79" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="R79" s="24" t="s">
+      <c r="R79" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="S79" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="23">
+      <c r="S79" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="15" thickBot="1">
+      <c r="A80" s="22">
         <v>4</v>
       </c>
-      <c r="B80" s="62">
+      <c r="B80" s="51">
         <v>2</v>
       </c>
       <c r="C80">
@@ -3400,640 +3425,640 @@
       <c r="D80" t="s">
         <v>77</v>
       </c>
-      <c r="E80" s="32" t="s">
+      <c r="E80" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="F80" s="63" t="s">
+      <c r="F80" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="G80" s="58">
+      <c r="G80" s="47">
         <v>12140</v>
       </c>
-      <c r="H80" s="23"/>
-      <c r="I80" s="24"/>
-      <c r="J80" s="24"/>
-      <c r="K80" s="33"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="24"/>
-      <c r="Q80" s="24"/>
-      <c r="R80" s="24"/>
-      <c r="S80" s="26"/>
-    </row>
-    <row r="81" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="9">
+      <c r="H80" s="22"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="32"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
+      <c r="Q80" s="23"/>
+      <c r="R80" s="23"/>
+      <c r="S80" s="25"/>
+    </row>
+    <row r="81" spans="1:19" ht="15" thickBot="1">
+      <c r="A81" s="8">
         <v>5</v>
       </c>
-      <c r="B81" s="60">
-        <v>1</v>
-      </c>
-      <c r="C81" s="11">
-        <v>1</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E81" s="11" t="s">
+      <c r="B81" s="49">
+        <v>1</v>
+      </c>
+      <c r="C81" s="10">
+        <v>1</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F81" s="36" t="s">
+      <c r="F81" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="G81" s="61"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="24"/>
-      <c r="J81" s="24"/>
-      <c r="K81" s="33"/>
-      <c r="L81" s="24"/>
-      <c r="M81" s="24"/>
-      <c r="Q81" s="24"/>
-      <c r="R81" s="24"/>
-      <c r="S81" s="26"/>
-    </row>
-    <row r="82" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
-      <c r="G82" s="26"/>
-      <c r="H82" s="23">
+      <c r="G81" s="50"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="32"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
+      <c r="Q81" s="23"/>
+      <c r="R81" s="23"/>
+      <c r="S81" s="25"/>
+    </row>
+    <row r="82" spans="1:19" ht="29">
+      <c r="A82" s="22"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="22">
         <v>13</v>
       </c>
-      <c r="I82" s="24" t="s">
+      <c r="I82" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="J82" s="24" t="s">
+      <c r="J82" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="K82" s="33" t="s">
+      <c r="K82" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L82" s="24"/>
-      <c r="M82" s="24"/>
-      <c r="Q82" s="24"/>
-      <c r="R82" s="24"/>
-      <c r="S82" s="26"/>
-    </row>
-    <row r="83" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-      <c r="G83" s="26"/>
-      <c r="H83" s="23">
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
+      <c r="Q82" s="23"/>
+      <c r="R82" s="23"/>
+      <c r="S82" s="25"/>
+    </row>
+    <row r="83" spans="1:19" ht="29">
+      <c r="A83" s="22"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="22">
         <v>13</v>
       </c>
-      <c r="I83" s="24" t="s">
+      <c r="I83" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="J83" s="24" t="s">
+      <c r="J83" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="K83" s="33" t="s">
+      <c r="K83" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="Q83" s="24"/>
-      <c r="R83" s="24"/>
-      <c r="S83" s="26"/>
-    </row>
-    <row r="84" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
-      <c r="G84" s="26"/>
-      <c r="H84" s="23">
+      <c r="L83" s="23"/>
+      <c r="M83" s="23"/>
+      <c r="Q83" s="23"/>
+      <c r="R83" s="23"/>
+      <c r="S83" s="25"/>
+    </row>
+    <row r="84" spans="1:19" ht="29">
+      <c r="A84" s="22"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="22">
         <v>13</v>
       </c>
-      <c r="I84" s="24" t="s">
+      <c r="I84" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="J84" s="24" t="s">
+      <c r="J84" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="K84" s="33" t="s">
+      <c r="K84" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L84" s="24"/>
-      <c r="M84" s="24"/>
-      <c r="Q84" s="24"/>
-      <c r="R84" s="24"/>
-      <c r="S84" s="26"/>
-    </row>
-    <row r="85" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
-      <c r="G85" s="26"/>
-      <c r="H85" s="23">
+      <c r="L84" s="23"/>
+      <c r="M84" s="23"/>
+      <c r="Q84" s="23"/>
+      <c r="R84" s="23"/>
+      <c r="S84" s="25"/>
+    </row>
+    <row r="85" spans="1:19" ht="29">
+      <c r="A85" s="22"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="22">
         <v>13</v>
       </c>
-      <c r="I85" s="24" t="s">
+      <c r="I85" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="J85" s="24" t="s">
+      <c r="J85" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="K85" s="33" t="s">
+      <c r="K85" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L85" s="24"/>
-      <c r="M85" s="24"/>
-      <c r="Q85" s="24"/>
-      <c r="R85" s="24"/>
-      <c r="S85" s="26"/>
-    </row>
-    <row r="86" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
-      <c r="G86" s="26"/>
-      <c r="H86" s="23">
+      <c r="L85" s="23"/>
+      <c r="M85" s="23"/>
+      <c r="Q85" s="23"/>
+      <c r="R85" s="23"/>
+      <c r="S85" s="25"/>
+    </row>
+    <row r="86" spans="1:19" ht="29">
+      <c r="A86" s="22"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="22">
         <v>13</v>
       </c>
-      <c r="I86" s="24" t="s">
+      <c r="I86" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="J86" s="24" t="s">
+      <c r="J86" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="K86" s="33" t="s">
+      <c r="K86" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L86" s="24"/>
-      <c r="M86" s="24"/>
-      <c r="Q86" s="24"/>
-      <c r="R86" s="24"/>
-      <c r="S86" s="26"/>
-    </row>
-    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="23"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="23">
+      <c r="L86" s="23"/>
+      <c r="M86" s="23"/>
+      <c r="Q86" s="23"/>
+      <c r="R86" s="23"/>
+      <c r="S86" s="25"/>
+    </row>
+    <row r="87" spans="1:19" ht="29">
+      <c r="A87" s="22"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="22">
         <v>13</v>
       </c>
-      <c r="I87" s="24" t="s">
+      <c r="I87" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J87" s="24" t="s">
+      <c r="J87" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="K87" s="33" t="s">
+      <c r="K87" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L87" s="24"/>
-      <c r="M87" s="24"/>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="24"/>
-      <c r="S87" s="26"/>
-    </row>
-    <row r="88" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="23"/>
-      <c r="G88" s="26"/>
-      <c r="H88" s="23">
+      <c r="L87" s="23"/>
+      <c r="M87" s="23"/>
+      <c r="Q87" s="23"/>
+      <c r="R87" s="23"/>
+      <c r="S87" s="25"/>
+    </row>
+    <row r="88" spans="1:19" ht="29">
+      <c r="A88" s="22"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="22">
         <v>13</v>
       </c>
-      <c r="I88" s="24" t="s">
+      <c r="I88" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="J88" s="24" t="s">
+      <c r="J88" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="K88" s="33" t="s">
+      <c r="K88" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="L88" s="24"/>
-      <c r="M88" s="24"/>
-      <c r="Q88" s="24"/>
-      <c r="R88" s="24"/>
-      <c r="S88" s="26"/>
-    </row>
-    <row r="89" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="23"/>
-      <c r="G89" s="26"/>
-      <c r="H89" s="23">
+      <c r="L88" s="23"/>
+      <c r="M88" s="23"/>
+      <c r="Q88" s="23"/>
+      <c r="R88" s="23"/>
+      <c r="S88" s="25"/>
+    </row>
+    <row r="89" spans="1:19" ht="29">
+      <c r="A89" s="22"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="22">
         <v>13</v>
       </c>
-      <c r="I89" s="24" t="s">
+      <c r="I89" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="J89" s="24" t="s">
+      <c r="J89" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="K89" s="33" t="s">
+      <c r="K89" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="L89" s="24"/>
-      <c r="M89" s="24"/>
-      <c r="Q89" s="24"/>
-      <c r="R89" s="24"/>
-      <c r="S89" s="26"/>
-    </row>
-    <row r="90" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="23"/>
-      <c r="G90" s="26"/>
-      <c r="H90" s="23">
+      <c r="L89" s="23"/>
+      <c r="M89" s="23"/>
+      <c r="Q89" s="23"/>
+      <c r="R89" s="23"/>
+      <c r="S89" s="25"/>
+    </row>
+    <row r="90" spans="1:19" ht="43.5">
+      <c r="A90" s="22"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="22">
         <v>14</v>
       </c>
-      <c r="I90" s="24" t="s">
+      <c r="I90" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="J90" s="24" t="s">
+      <c r="J90" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K90" s="33" t="s">
+      <c r="K90" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L90" s="24"/>
-      <c r="M90" s="24"/>
-      <c r="Q90" s="24"/>
-      <c r="R90" s="24"/>
-      <c r="S90" s="26"/>
-    </row>
-    <row r="91" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
-      <c r="G91" s="26"/>
-      <c r="H91" s="23">
+      <c r="L90" s="23"/>
+      <c r="M90" s="23"/>
+      <c r="Q90" s="23"/>
+      <c r="R90" s="23"/>
+      <c r="S90" s="25"/>
+    </row>
+    <row r="91" spans="1:19" ht="43.5">
+      <c r="A91" s="22"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="22">
         <v>14</v>
       </c>
-      <c r="I91" s="24" t="s">
+      <c r="I91" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="J91" s="24" t="s">
+      <c r="J91" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="K91" s="33" t="s">
+      <c r="K91" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L91" s="24"/>
-      <c r="M91" s="24"/>
-      <c r="Q91" s="24"/>
-      <c r="R91" s="24"/>
-      <c r="S91" s="26"/>
-    </row>
-    <row r="92" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="23"/>
-      <c r="G92" s="26"/>
-      <c r="H92" s="23">
+      <c r="L91" s="23"/>
+      <c r="M91" s="23"/>
+      <c r="Q91" s="23"/>
+      <c r="R91" s="23"/>
+      <c r="S91" s="25"/>
+    </row>
+    <row r="92" spans="1:19" ht="44" thickBot="1">
+      <c r="A92" s="22"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="22">
         <v>14</v>
       </c>
-      <c r="I92" s="24" t="s">
+      <c r="I92" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="J92" s="24" t="s">
+      <c r="J92" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="K92" s="33" t="s">
+      <c r="K92" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L92" s="24"/>
-      <c r="M92" s="24"/>
-      <c r="Q92" s="25"/>
-      <c r="R92" s="24"/>
-      <c r="S92" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="9">
-        <v>1</v>
-      </c>
-      <c r="B93" s="60">
-        <v>1</v>
-      </c>
-      <c r="C93" s="11">
-        <v>1</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E93" s="11" t="s">
+      <c r="L92" s="23"/>
+      <c r="M92" s="23"/>
+      <c r="Q92" s="24"/>
+      <c r="R92" s="23"/>
+      <c r="S92" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" ht="44" thickBot="1">
+      <c r="A93" s="8">
+        <v>1</v>
+      </c>
+      <c r="B93" s="49">
+        <v>1</v>
+      </c>
+      <c r="C93" s="10">
+        <v>1</v>
+      </c>
+      <c r="D93" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E93" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F93" s="36" t="s">
+      <c r="F93" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="G93" s="61"/>
-      <c r="H93" s="23">
+      <c r="G93" s="50"/>
+      <c r="H93" s="22">
         <v>14</v>
       </c>
-      <c r="I93" s="24" t="s">
+      <c r="I93" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="J93" s="24" t="s">
+      <c r="J93" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="K93" s="33" t="s">
+      <c r="K93" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L93" s="24" t="s">
+      <c r="L93" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="M93" s="24">
+      <c r="M93" s="23">
         <v>9</v>
       </c>
-      <c r="Q93" s="25" t="s">
+      <c r="Q93" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="R93" s="24" t="s">
+      <c r="R93" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="S93" s="26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="9">
+      <c r="S93" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" ht="15" thickBot="1">
+      <c r="A94" s="8">
         <v>4</v>
       </c>
-      <c r="B94" s="10">
+      <c r="B94" s="9">
         <v>2</v>
       </c>
-      <c r="C94" s="11">
-        <v>1</v>
-      </c>
-      <c r="D94" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E94" s="64" t="s">
+      <c r="C94" s="10">
+        <v>1</v>
+      </c>
+      <c r="D94" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E94" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="F94" s="65" t="s">
+      <c r="F94" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="G94" s="59">
+      <c r="G94" s="48">
         <v>12140</v>
       </c>
-      <c r="H94" s="23"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="33"/>
-      <c r="L94" s="24"/>
-      <c r="M94" s="24"/>
-      <c r="Q94" s="24"/>
-      <c r="R94" s="24"/>
-      <c r="S94" s="26"/>
-    </row>
-    <row r="95" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="9">
+      <c r="H94" s="22"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="32"/>
+      <c r="L94" s="23"/>
+      <c r="M94" s="23"/>
+      <c r="Q94" s="23"/>
+      <c r="R94" s="23"/>
+      <c r="S94" s="25"/>
+    </row>
+    <row r="95" spans="1:19" ht="15" thickBot="1">
+      <c r="A95" s="8">
         <v>5</v>
       </c>
-      <c r="B95" s="60">
-        <v>1</v>
-      </c>
-      <c r="C95" s="11">
-        <v>1</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E95" s="11" t="s">
+      <c r="B95" s="49">
+        <v>1</v>
+      </c>
+      <c r="C95" s="10">
+        <v>1</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E95" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F95" s="36" t="s">
+      <c r="F95" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="G95" s="61"/>
-      <c r="H95" s="23"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
-      <c r="K95" s="33"/>
-      <c r="L95" s="24"/>
-      <c r="M95" s="24"/>
-      <c r="Q95" s="24"/>
-      <c r="R95" s="24"/>
-      <c r="S95" s="26"/>
-    </row>
-    <row r="96" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A96" s="23"/>
-      <c r="B96" s="24"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="24"/>
-      <c r="G96" s="24"/>
-      <c r="H96" s="23">
+      <c r="G95" s="50"/>
+      <c r="H95" s="22"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="32"/>
+      <c r="L95" s="23"/>
+      <c r="M95" s="23"/>
+      <c r="Q95" s="23"/>
+      <c r="R95" s="23"/>
+      <c r="S95" s="25"/>
+    </row>
+    <row r="96" spans="1:19" ht="43.5">
+      <c r="A96" s="22"/>
+      <c r="B96" s="23"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="23"/>
+      <c r="G96" s="23"/>
+      <c r="H96" s="22">
         <v>14</v>
       </c>
-      <c r="I96" s="24" t="s">
+      <c r="I96" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="J96" s="24" t="s">
+      <c r="J96" s="23" t="s">
         <v>61</v>
       </c>
-      <c r="K96" s="33" t="s">
+      <c r="K96" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L96" s="24"/>
-      <c r="M96" s="24"/>
-      <c r="Q96" s="24"/>
-      <c r="R96" s="24"/>
-      <c r="S96" s="26"/>
-    </row>
-    <row r="97" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A97" s="23"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="24"/>
-      <c r="D97" s="24"/>
-      <c r="E97" s="24"/>
-      <c r="F97" s="24"/>
-      <c r="G97" s="24"/>
-      <c r="H97" s="23">
+      <c r="L96" s="23"/>
+      <c r="M96" s="23"/>
+      <c r="Q96" s="23"/>
+      <c r="R96" s="23"/>
+      <c r="S96" s="25"/>
+    </row>
+    <row r="97" spans="1:19" ht="43.5">
+      <c r="A97" s="22"/>
+      <c r="B97" s="23"/>
+      <c r="C97" s="23"/>
+      <c r="D97" s="23"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="23"/>
+      <c r="H97" s="22">
         <v>14</v>
       </c>
-      <c r="I97" s="24" t="s">
+      <c r="I97" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="J97" s="24" t="s">
+      <c r="J97" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="K97" s="33" t="s">
+      <c r="K97" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L97" s="24"/>
-      <c r="M97" s="24"/>
-      <c r="Q97" s="24"/>
-      <c r="R97" s="24"/>
-      <c r="S97" s="26"/>
-    </row>
-    <row r="98" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="23"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="24"/>
-      <c r="D98" s="24"/>
-      <c r="E98" s="24"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="24"/>
-      <c r="H98" s="23">
+      <c r="L97" s="23"/>
+      <c r="M97" s="23"/>
+      <c r="Q97" s="23"/>
+      <c r="R97" s="23"/>
+      <c r="S97" s="25"/>
+    </row>
+    <row r="98" spans="1:19" ht="43.5">
+      <c r="A98" s="22"/>
+      <c r="B98" s="23"/>
+      <c r="C98" s="23"/>
+      <c r="D98" s="23"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="23"/>
+      <c r="G98" s="23"/>
+      <c r="H98" s="22">
         <v>14</v>
       </c>
-      <c r="I98" s="24" t="s">
+      <c r="I98" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="J98" s="24" t="s">
+      <c r="J98" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="K98" s="33" t="s">
+      <c r="K98" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L98" s="24"/>
-      <c r="M98" s="24"/>
-      <c r="Q98" s="24"/>
-      <c r="R98" s="24"/>
-      <c r="S98" s="26"/>
-    </row>
-    <row r="99" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="23"/>
-      <c r="B99" s="24"/>
-      <c r="C99" s="24"/>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="23">
+      <c r="L98" s="23"/>
+      <c r="M98" s="23"/>
+      <c r="Q98" s="23"/>
+      <c r="R98" s="23"/>
+      <c r="S98" s="25"/>
+    </row>
+    <row r="99" spans="1:19" ht="43.5">
+      <c r="A99" s="22"/>
+      <c r="B99" s="23"/>
+      <c r="C99" s="23"/>
+      <c r="D99" s="23"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="23"/>
+      <c r="G99" s="23"/>
+      <c r="H99" s="22">
         <v>14</v>
       </c>
-      <c r="I99" s="24" t="s">
+      <c r="I99" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="J99" s="24" t="s">
+      <c r="J99" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="K99" s="33" t="s">
+      <c r="K99" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L99" s="24"/>
-      <c r="M99" s="24"/>
-      <c r="Q99" s="24"/>
-      <c r="R99" s="24"/>
-      <c r="S99" s="26"/>
-    </row>
-    <row r="100" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="23"/>
-      <c r="B100" s="24"/>
-      <c r="C100" s="24"/>
-      <c r="D100" s="24"/>
-      <c r="E100" s="24"/>
-      <c r="F100" s="24"/>
-      <c r="G100" s="24"/>
-      <c r="H100" s="23">
+      <c r="L99" s="23"/>
+      <c r="M99" s="23"/>
+      <c r="Q99" s="23"/>
+      <c r="R99" s="23"/>
+      <c r="S99" s="25"/>
+    </row>
+    <row r="100" spans="1:19" ht="43.5">
+      <c r="A100" s="22"/>
+      <c r="B100" s="23"/>
+      <c r="C100" s="23"/>
+      <c r="D100" s="23"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="23"/>
+      <c r="G100" s="23"/>
+      <c r="H100" s="22">
         <v>14</v>
       </c>
-      <c r="I100" s="24" t="s">
+      <c r="I100" s="23" t="s">
         <v>119</v>
       </c>
-      <c r="J100" s="24" t="s">
+      <c r="J100" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="K100" s="33" t="s">
+      <c r="K100" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L100" s="24"/>
-      <c r="M100" s="24"/>
-      <c r="Q100" s="24"/>
-      <c r="R100" s="24"/>
-      <c r="S100" s="26"/>
-    </row>
-    <row r="101" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A101" s="23"/>
-      <c r="B101" s="24"/>
-      <c r="C101" s="24"/>
-      <c r="D101" s="24"/>
-      <c r="E101" s="24"/>
-      <c r="F101" s="24"/>
-      <c r="G101" s="24"/>
-      <c r="H101" s="23">
+      <c r="L100" s="23"/>
+      <c r="M100" s="23"/>
+      <c r="Q100" s="23"/>
+      <c r="R100" s="23"/>
+      <c r="S100" s="25"/>
+    </row>
+    <row r="101" spans="1:19" ht="43.5">
+      <c r="A101" s="22"/>
+      <c r="B101" s="23"/>
+      <c r="C101" s="23"/>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="22">
         <v>14</v>
       </c>
-      <c r="I101" s="24" t="s">
+      <c r="I101" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="J101" s="24" t="s">
+      <c r="J101" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="K101" s="33" t="s">
+      <c r="K101" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L101" s="24"/>
-      <c r="M101" s="24"/>
-      <c r="Q101" s="24"/>
-      <c r="R101" s="24"/>
-      <c r="S101" s="26"/>
-    </row>
-    <row r="102" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="23"/>
-      <c r="B102" s="24"/>
-      <c r="C102" s="24"/>
-      <c r="D102" s="24"/>
-      <c r="E102" s="24"/>
-      <c r="F102" s="24"/>
-      <c r="G102" s="24"/>
-      <c r="H102" s="23">
+      <c r="L101" s="23"/>
+      <c r="M101" s="23"/>
+      <c r="Q101" s="23"/>
+      <c r="R101" s="23"/>
+      <c r="S101" s="25"/>
+    </row>
+    <row r="102" spans="1:19" ht="43.5">
+      <c r="A102" s="22"/>
+      <c r="B102" s="23"/>
+      <c r="C102" s="23"/>
+      <c r="D102" s="23"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="23"/>
+      <c r="H102" s="22">
         <v>14</v>
       </c>
-      <c r="I102" s="24" t="s">
+      <c r="I102" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="J102" s="24" t="s">
+      <c r="J102" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="K102" s="33" t="s">
+      <c r="K102" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L102" s="24"/>
-      <c r="M102" s="24"/>
-      <c r="Q102" s="24"/>
-      <c r="R102" s="24"/>
-      <c r="S102" s="26"/>
-    </row>
-    <row r="103" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A103" s="23"/>
-      <c r="B103" s="24"/>
-      <c r="C103" s="24"/>
-      <c r="D103" s="24"/>
-      <c r="E103" s="24"/>
-      <c r="F103" s="24"/>
-      <c r="G103" s="24"/>
-      <c r="H103" s="23">
+      <c r="L102" s="23"/>
+      <c r="M102" s="23"/>
+      <c r="Q102" s="23"/>
+      <c r="R102" s="23"/>
+      <c r="S102" s="25"/>
+    </row>
+    <row r="103" spans="1:19" ht="43.5">
+      <c r="A103" s="22"/>
+      <c r="B103" s="23"/>
+      <c r="C103" s="23"/>
+      <c r="D103" s="23"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="23"/>
+      <c r="H103" s="22">
         <v>14</v>
       </c>
-      <c r="I103" s="24" t="s">
+      <c r="I103" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="J103" s="24" t="s">
+      <c r="J103" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="K103" s="33" t="s">
+      <c r="K103" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="L103" s="24"/>
-      <c r="M103" s="24"/>
-      <c r="Q103" s="24"/>
-      <c r="R103" s="24"/>
-      <c r="S103" s="26"/>
-    </row>
-    <row r="104" spans="1:19" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L103" s="23"/>
+      <c r="M103" s="23"/>
+      <c r="Q103" s="23"/>
+      <c r="R103" s="23"/>
+      <c r="S103" s="25"/>
+    </row>
+    <row r="104" spans="1:19" ht="44" thickBot="1">
       <c r="A104" s="6"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
       <c r="H104" s="6">
         <v>100</v>
       </c>
-      <c r="I104" s="8"/>
-      <c r="J104" s="8" t="s">
+      <c r="I104" s="7"/>
+      <c r="J104" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K104" s="40" t="s">
+      <c r="K104" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L104" s="8" t="s">
+      <c r="L104" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M104" s="8">
+      <c r="M104" s="7">
         <v>9</v>
       </c>
-      <c r="N104" s="8"/>
-      <c r="O104" s="8"/>
-      <c r="P104" s="8"/>
-      <c r="Q104" s="27" t="s">
+      <c r="N104" s="7"/>
+      <c r="O104" s="7"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="R104" s="8" t="s">
+      <c r="R104" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="S104" s="28">
+      <c r="S104" s="27">
         <v>1</v>
       </c>
     </row>
